--- a/data/trans_orig/P1418-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>60220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47036</v>
+        <v>46163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74453</v>
+        <v>74505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1030921620272534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08052200742633336</v>
+        <v>0.07902650155450966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1274575590106104</v>
+        <v>0.1275454818420671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -765,19 +765,19 @@
         <v>137160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116178</v>
+        <v>118690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157774</v>
+        <v>163614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1487093272336239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1259606699998464</v>
+        <v>0.1286847167916191</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1710592849457251</v>
+        <v>0.1773915062224177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -786,19 +786,19 @@
         <v>197380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170704</v>
+        <v>171929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224380</v>
+        <v>225608</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1310210926444451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1133139220239443</v>
+        <v>0.1141266149555744</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1489439302506042</v>
+        <v>0.1497593041106974</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>523921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>509688</v>
+        <v>509636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>537105</v>
+        <v>537978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8969078379727466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8725424409893894</v>
+        <v>0.872454518157933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9194779925736666</v>
+        <v>0.9209734984454904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>751</v>
@@ -836,19 +836,19 @@
         <v>785173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>764559</v>
+        <v>758719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>806155</v>
+        <v>803643</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.851290672766376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8289407150542749</v>
+        <v>0.8226084937775822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8740393300001535</v>
+        <v>0.8713152832083809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1263</v>
@@ -857,19 +857,19 @@
         <v>1309094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1282094</v>
+        <v>1280866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1335770</v>
+        <v>1334545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8689789073555549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8510560697493958</v>
+        <v>0.8502406958893028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8866860779760557</v>
+        <v>0.8858733850444257</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>61021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47306</v>
+        <v>47301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77461</v>
+        <v>76801</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0566112449515571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04388755178325052</v>
+        <v>0.04388276213766526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07186321468431085</v>
+        <v>0.07125058054832754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -982,19 +982,19 @@
         <v>98262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82180</v>
+        <v>81360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118358</v>
+        <v>119393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09291541247107649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07770917351102559</v>
+        <v>0.07693376806159855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1119183411682728</v>
+        <v>0.1128970843111819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>157</v>
@@ -1003,19 +1003,19 @@
         <v>159283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135110</v>
+        <v>139022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184757</v>
+        <v>186944</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07459029377271127</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06327078591602454</v>
+        <v>0.06510229731356545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0865196936598543</v>
+        <v>0.08754381187170621</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1016873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000433</v>
+        <v>1001093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1030588</v>
+        <v>1030593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9433887550484429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9281367853156891</v>
+        <v>0.9287494194516721</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9561124482167495</v>
+        <v>0.9561172378623346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -1053,19 +1053,19 @@
         <v>959276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>939180</v>
+        <v>938145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>975358</v>
+        <v>976178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9070845875289235</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8880816588317269</v>
+        <v>0.8871029156888181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9222908264889743</v>
+        <v>0.9230662319384014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1926</v>
@@ -1074,19 +1074,19 @@
         <v>1976149</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1950675</v>
+        <v>1948488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2000322</v>
+        <v>1996410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9254097062272887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9134803063401458</v>
+        <v>0.9124561881282937</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9367292140839755</v>
+        <v>0.9348977026864346</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18461</v>
+        <v>18497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40510</v>
+        <v>41173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02538383363401731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01645992658929896</v>
+        <v>0.01649159368584004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0361183162454875</v>
+        <v>0.03670914553153844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1199,19 +1199,19 @@
         <v>75290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59873</v>
+        <v>59340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94234</v>
+        <v>93492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07574930595447367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06023814326194322</v>
+        <v>0.05970147650012143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09480859826538705</v>
+        <v>0.09406189325453132</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -1220,19 +1220,19 @@
         <v>103761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84294</v>
+        <v>85693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123381</v>
+        <v>127031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04904700353833735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03984545291340019</v>
+        <v>0.04050675934161396</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05832151505380039</v>
+        <v>0.06004683708491456</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1093124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1081084</v>
+        <v>1080421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1103133</v>
+        <v>1103097</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9746161663659827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9638816837545128</v>
+        <v>0.9632908544684615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.983540073410701</v>
+        <v>0.98350840631416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>910</v>
@@ -1270,19 +1270,19 @@
         <v>918650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>899706</v>
+        <v>900448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>934067</v>
+        <v>934600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9242506940455263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.905191401734613</v>
+        <v>0.9059381067454687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9397618567380568</v>
+        <v>0.9402985234998786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1985</v>
@@ -1291,19 +1291,19 @@
         <v>2011773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1992153</v>
+        <v>1988503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2031240</v>
+        <v>2029841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9509529964616626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9416784849461997</v>
+        <v>0.9399531629150855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9601545470865998</v>
+        <v>0.9594932406583861</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13368</v>
+        <v>13751</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31948</v>
+        <v>31521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04935970415976852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02989168487515302</v>
+        <v>0.03074976935906516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07144118844267106</v>
+        <v>0.07048422734490051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>23358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14919</v>
+        <v>14643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34890</v>
+        <v>34325</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06846692442481016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04372941817941278</v>
+        <v>0.04292128205569379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1022698407767957</v>
+        <v>0.1006132035195353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1437,19 +1437,19 @@
         <v>45432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32762</v>
+        <v>34096</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58795</v>
+        <v>60800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05762826433336846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04155725008745331</v>
+        <v>0.04324923296355574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07457905605111725</v>
+        <v>0.07712292449849784</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>425126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415252</v>
+        <v>415679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433832</v>
+        <v>433449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9506402958402315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.928558811557329</v>
+        <v>0.9295157726550994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9701083151248471</v>
+        <v>0.9692502306409346</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -1487,19 +1487,19 @@
         <v>317800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306268</v>
+        <v>306833</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326239</v>
+        <v>326515</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9315330755751898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8977301592232043</v>
+        <v>0.8993867964804647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9562705818205871</v>
+        <v>0.9570787179443062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>731</v>
@@ -1508,19 +1508,19 @@
         <v>742926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729563</v>
+        <v>727558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>755596</v>
+        <v>754262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9423717356666316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9254209439488832</v>
+        <v>0.9228770755015022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9584427499125473</v>
+        <v>0.9567507670364445</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>171785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148237</v>
+        <v>147934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198875</v>
+        <v>198285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05317065830531439</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.045881938114275</v>
+        <v>0.04578819065737522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06155536007505696</v>
+        <v>0.06137273637377958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>322</v>
@@ -1633,19 +1633,19 @@
         <v>334069</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>298005</v>
+        <v>301029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>366600</v>
+        <v>369498</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1007760297044748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08989671635254538</v>
+        <v>0.09080914331880684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.110589154790585</v>
+        <v>0.1114633618476159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>497</v>
@@ -1654,19 +1654,19 @@
         <v>505855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>461295</v>
+        <v>461423</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>546485</v>
+        <v>549895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07727930313220972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07047190830154888</v>
+        <v>0.07049154423941359</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08348643123460299</v>
+        <v>0.08400726513828115</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3059044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3031954</v>
+        <v>3032544</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3082592</v>
+        <v>3082895</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9468293416946856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9384446399249432</v>
+        <v>0.9386272636262204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9541180618857252</v>
+        <v>0.9542118093426246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2912</v>
@@ -1704,19 +1704,19 @@
         <v>2980900</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2948369</v>
+        <v>2945471</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3016964</v>
+        <v>3013940</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8992239702955251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.889410845209415</v>
+        <v>0.8885366381523843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9101032836474547</v>
+        <v>0.9091908566811931</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5905</v>
@@ -1725,19 +1725,19 @@
         <v>6039943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5999313</v>
+        <v>5995903</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6084503</v>
+        <v>6084375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9227206968677902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9165135687653968</v>
+        <v>0.9159927348617187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9295280916984511</v>
+        <v>0.9295084557605862</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>35574</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25100</v>
+        <v>25048</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50100</v>
+        <v>50530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03407670419596387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02404391461522164</v>
+        <v>0.02399407957503306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.047991607058367</v>
+        <v>0.04840339587366355</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -2090,19 +2090,19 @@
         <v>129956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109971</v>
+        <v>109465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153151</v>
+        <v>152385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1161717335386669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09830700131810202</v>
+        <v>0.09785417969053403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1369062566342628</v>
+        <v>0.136222224213298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -2111,19 +2111,19 @@
         <v>165530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>139381</v>
+        <v>143178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190027</v>
+        <v>190861</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07654242479515855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0644509290168287</v>
+        <v>0.06620691264340373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08787006071909124</v>
+        <v>0.08825561251131257</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1008361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>993835</v>
+        <v>993405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1018835</v>
+        <v>1018887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9659232958040361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.952008392941633</v>
+        <v>0.9515966041263365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9759560853847783</v>
+        <v>0.9760059204249669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>910</v>
@@ -2161,19 +2161,19 @@
         <v>988697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>965502</v>
+        <v>966268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1008682</v>
+        <v>1009188</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8838282664613331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8630937433657372</v>
+        <v>0.863777775786702</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.901692998681898</v>
+        <v>0.902145820309466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1856</v>
@@ -2182,19 +2182,19 @@
         <v>1997058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1972561</v>
+        <v>1971727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2023207</v>
+        <v>2019410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9234575752048414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9121299392809088</v>
+        <v>0.9117443874886876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9355490709831713</v>
+        <v>0.9337930873565967</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>34355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24510</v>
+        <v>23696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50347</v>
+        <v>48895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03516091065972776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02508471597138793</v>
+        <v>0.02425193535575724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05152889884292768</v>
+        <v>0.05004191134445602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -2307,19 +2307,19 @@
         <v>112281</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93107</v>
+        <v>95152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134854</v>
+        <v>135833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1027906386715255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08523742136807738</v>
+        <v>0.08710915630350202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1234558136591986</v>
+        <v>0.1243516016549219</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -2328,19 +2328,19 @@
         <v>146636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125016</v>
+        <v>122611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174516</v>
+        <v>171971</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07085907565676704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06041191926103966</v>
+        <v>0.05924960236823806</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08433190303281753</v>
+        <v>0.0831018250431874</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>942718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926726</v>
+        <v>928178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952563</v>
+        <v>953377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9648390893402723</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9484711011570722</v>
+        <v>0.949958088655544</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9749152840286121</v>
+        <v>0.9757480646442428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>914</v>
@@ -2378,19 +2378,19 @@
         <v>980046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>957473</v>
+        <v>956494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>999220</v>
+        <v>997175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8972093613284745</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8765441863408014</v>
+        <v>0.8756483983450781</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9147625786319226</v>
+        <v>0.912890843696498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1807</v>
@@ -2399,19 +2399,19 @@
         <v>1922764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1894884</v>
+        <v>1897429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1944384</v>
+        <v>1946789</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9291409243432329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9156680969671825</v>
+        <v>0.9168981749568126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9395880807389603</v>
+        <v>0.9407503976317619</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>28478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18900</v>
+        <v>18360</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40839</v>
+        <v>41162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03217414853982611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02135372145331686</v>
+        <v>0.02074321450962244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04613956425551083</v>
+        <v>0.04650481356896577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -2524,19 +2524,19 @@
         <v>69093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54687</v>
+        <v>54535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87594</v>
+        <v>86932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07898621788936101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06251693387062116</v>
+        <v>0.0623432965264711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1001361181399493</v>
+        <v>0.09937903870509907</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -2545,19 +2545,19 @@
         <v>97571</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77993</v>
+        <v>79254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118731</v>
+        <v>119538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0554423187665509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04431737907181469</v>
+        <v>0.04503420238959545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0674660549285158</v>
+        <v>0.06792465148603032</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>856637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>844276</v>
+        <v>843953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>866215</v>
+        <v>866755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9678258514601739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9538604357444899</v>
+        <v>0.9534951864310343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9786462785466835</v>
+        <v>0.9792567854903775</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>757</v>
@@ -2595,19 +2595,19 @@
         <v>805656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>787155</v>
+        <v>787817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>820062</v>
+        <v>820214</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.921013782110639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8998638818600506</v>
+        <v>0.9006209612949011</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9374830661293788</v>
+        <v>0.9376567034735289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1560</v>
@@ -2616,19 +2616,19 @@
         <v>1662293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1641133</v>
+        <v>1640326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1681871</v>
+        <v>1680610</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9445576812334491</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9325339450714842</v>
+        <v>0.9320753485139698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9556826209281857</v>
+        <v>0.9549657976104046</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>8485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4066</v>
+        <v>4046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15830</v>
+        <v>15982</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01686794442165082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008082373528181929</v>
+        <v>0.008043785715286062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03146959234251944</v>
+        <v>0.03177107677031041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>33394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22171</v>
+        <v>22432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47028</v>
+        <v>48004</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07376020612398736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04897189056732781</v>
+        <v>0.04954678315981133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1038743826003906</v>
+        <v>0.1060318896816776</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -2762,19 +2762,19 @@
         <v>41879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30415</v>
+        <v>29885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58133</v>
+        <v>56948</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04381738632849919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03182285547437169</v>
+        <v>0.03126794101466191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06082389232851313</v>
+        <v>0.05958428596813248</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>494538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487193</v>
+        <v>487041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498957</v>
+        <v>498977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831320555783492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9685304076574807</v>
+        <v>0.9682289232296897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919176264718181</v>
+        <v>0.9919562142847139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -2812,19 +2812,19 @@
         <v>419342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>405708</v>
+        <v>404732</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>430565</v>
+        <v>430304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9262397938760126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8961256173996093</v>
+        <v>0.8939681103183224</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9510281094326721</v>
+        <v>0.9504532168401887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>836</v>
@@ -2833,19 +2833,19 @@
         <v>913879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>897625</v>
+        <v>898810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>925343</v>
+        <v>925873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9561826136715008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9391761076714871</v>
+        <v>0.9404157140318677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9681771445256284</v>
+        <v>0.9687320589853382</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>106891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88449</v>
+        <v>87176</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131283</v>
+        <v>128455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0313543131443949</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02594462529211354</v>
+        <v>0.02557119733109873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03850913546448811</v>
+        <v>0.03767939211988122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -2958,19 +2958,19 @@
         <v>344724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311449</v>
+        <v>310599</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>382917</v>
+        <v>383146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0974218674526497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08801820172368365</v>
+        <v>0.08777782734321764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1082156501066113</v>
+        <v>0.1082802538915822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>415</v>
@@ -2979,19 +2979,19 @@
         <v>451615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>407185</v>
+        <v>411662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>495663</v>
+        <v>498991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06500296481440723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05860786758309519</v>
+        <v>0.05925225602174035</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07134292732199873</v>
+        <v>0.07182194721470657</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3302254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3277862</v>
+        <v>3280690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3320696</v>
+        <v>3321969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9686456868556051</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9614908645355118</v>
+        <v>0.9623206078801188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9740553747078866</v>
+        <v>0.9744288026689011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2964</v>
@@ -3029,19 +3029,19 @@
         <v>3193741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3155548</v>
+        <v>3155319</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3227016</v>
+        <v>3227866</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9025781325473503</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8917843498933888</v>
+        <v>0.8917197461084178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9119817982763163</v>
+        <v>0.9122221726567824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6059</v>
@@ -3050,19 +3050,19 @@
         <v>6495995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6451947</v>
+        <v>6448619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6540425</v>
+        <v>6535948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9349970351855927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9286570726780015</v>
+        <v>0.9281780527852945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9413921324169048</v>
+        <v>0.9407477439782598</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>31710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22099</v>
+        <v>22409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45084</v>
+        <v>44810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02811166103033729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01959117971495111</v>
+        <v>0.01986632724784649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03996833361205927</v>
+        <v>0.0397251339098657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -3415,19 +3415,19 @@
         <v>116622</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96875</v>
+        <v>97170</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140903</v>
+        <v>143223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0925890627244913</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07691206785605718</v>
+        <v>0.0771456117413451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1118667603615122</v>
+        <v>0.1137083277984508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -3436,19 +3436,19 @@
         <v>148331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127513</v>
+        <v>123507</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173394</v>
+        <v>173472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06212683708794638</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05340711474945404</v>
+        <v>0.05172937038588377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07262407908506113</v>
+        <v>0.07265666074755336</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1096287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1082913</v>
+        <v>1083187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1105898</v>
+        <v>1105588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9718883389696628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9600316663879407</v>
+        <v>0.9602748660901343</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9804088202850489</v>
+        <v>0.9801336727521535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1085</v>
@@ -3486,19 +3486,19 @@
         <v>1142939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1118658</v>
+        <v>1116338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1162686</v>
+        <v>1162391</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9074109372755087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8881332396384877</v>
+        <v>0.886291672201549</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9230879321439427</v>
+        <v>0.9228543882586548</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2120</v>
@@ -3507,19 +3507,19 @@
         <v>2239227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2214164</v>
+        <v>2214086</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2260045</v>
+        <v>2264051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9378731629120536</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9273759209149388</v>
+        <v>0.9273433392524465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.946592885250546</v>
+        <v>0.948270629614116</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>23424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15864</v>
+        <v>15199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35296</v>
+        <v>34266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02577358536621446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01745580081169612</v>
+        <v>0.01672364075175179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03883698681548802</v>
+        <v>0.03770368477494164</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3632,19 +3632,19 @@
         <v>69280</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54629</v>
+        <v>51068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86630</v>
+        <v>86633</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06883473620641865</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05427718881811333</v>
+        <v>0.05073904210267451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08607219011925155</v>
+        <v>0.08607572708516473</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3653,19 +3653,19 @@
         <v>92704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73405</v>
+        <v>75742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112976</v>
+        <v>115293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04840188529654545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03832548346709275</v>
+        <v>0.03954590374450629</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05898611553882336</v>
+        <v>0.06019563203746837</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>885401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873529</v>
+        <v>874559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892961</v>
+        <v>893626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9742264146337856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.961163013184512</v>
+        <v>0.9622963152250589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825441991883037</v>
+        <v>0.9832763592482485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>889</v>
@@ -3703,19 +3703,19 @@
         <v>937195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>919845</v>
+        <v>919842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951846</v>
+        <v>955407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9311652637935813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9139278098807485</v>
+        <v>0.9139242729148354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9457228111818867</v>
+        <v>0.9492609578973255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1746</v>
@@ -3724,19 +3724,19 @@
         <v>1822596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1802324</v>
+        <v>1800007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1841895</v>
+        <v>1839558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9515981147034546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9410138844611767</v>
+        <v>0.9398043679625316</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9616745165329073</v>
+        <v>0.9604540962554937</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>17222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10860</v>
+        <v>10753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26982</v>
+        <v>26149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02090709977486845</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01318288677926414</v>
+        <v>0.01305386253881288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03275480723925855</v>
+        <v>0.03174353684207761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3849,19 +3849,19 @@
         <v>50420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37527</v>
+        <v>37109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66437</v>
+        <v>69250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06539065830164206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04866903244038573</v>
+        <v>0.04812678761144244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08616305889531643</v>
+        <v>0.08981101252452763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3870,19 +3870,19 @@
         <v>67642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52706</v>
+        <v>51619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84854</v>
+        <v>85335</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04241390172589103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03304857364056085</v>
+        <v>0.0323668508811631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05320618035018655</v>
+        <v>0.05350773766705327</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>806537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>796777</v>
+        <v>797610</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>812899</v>
+        <v>813006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9790929002251315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9672451927607419</v>
+        <v>0.9682564631579225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.986817113220736</v>
+        <v>0.9869461374611872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -3920,19 +3920,19 @@
         <v>720639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704622</v>
+        <v>701809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733532</v>
+        <v>733950</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.934609341698358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9138369411046835</v>
+        <v>0.9101889874754731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9513309675596142</v>
+        <v>0.9518732123885577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1454</v>
@@ -3941,19 +3941,19 @@
         <v>1527176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1509964</v>
+        <v>1509483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1542112</v>
+        <v>1543199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.957586098274109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9467938196498136</v>
+        <v>0.9464922623329467</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9669514263594392</v>
+        <v>0.9676331491188369</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>7519</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2610</v>
+        <v>2971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14895</v>
+        <v>14190</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01483908468122767</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005150060107944564</v>
+        <v>0.005864162520192196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02939601297433717</v>
+        <v>0.0280045446888475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4066,19 +4066,19 @@
         <v>15670</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8673</v>
+        <v>8878</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28409</v>
+        <v>26925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03199890784189251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01771102167147583</v>
+        <v>0.01813014989975354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05801377351945937</v>
+        <v>0.05498209928385185</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4087,19 +4087,19 @@
         <v>23189</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14373</v>
+        <v>13542</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35483</v>
+        <v>35720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02327258170825255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01442494364877399</v>
+        <v>0.01359122138178116</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03561159375926892</v>
+        <v>0.03584918091715939</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>499182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491806</v>
+        <v>492511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504091</v>
+        <v>503730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9851609153187724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9706039870256629</v>
+        <v>0.9719954553111524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948499398920555</v>
+        <v>0.9941358374798077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -4137,19 +4137,19 @@
         <v>474028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>461289</v>
+        <v>462773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>481025</v>
+        <v>480820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9680010921581075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9419862264805406</v>
+        <v>0.9450179007161481</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9822889783285242</v>
+        <v>0.9818698501002464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>907</v>
@@ -4158,19 +4158,19 @@
         <v>973209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960915</v>
+        <v>960678</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>982025</v>
+        <v>982856</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9767274182917475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9643884062407311</v>
+        <v>0.9641508190828406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.985575056351226</v>
+        <v>0.9864087786182189</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>79875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64501</v>
+        <v>63560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100606</v>
+        <v>98558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02372089390773484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01915520250357126</v>
+        <v>0.01887577160754682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02987737199884371</v>
+        <v>0.02926942492121446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -4283,19 +4283,19 @@
         <v>251992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>220393</v>
+        <v>220539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>286113</v>
+        <v>286209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07145071556785562</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06249098462053794</v>
+        <v>0.06253245803119649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08112568683562028</v>
+        <v>0.0811528326959718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -4304,19 +4304,19 @@
         <v>331867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>296884</v>
+        <v>294443</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>368072</v>
+        <v>374551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04813797375905556</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04306363132757383</v>
+        <v>0.04270960657356514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05338956758280447</v>
+        <v>0.05432934673707602</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3287407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3266676</v>
+        <v>3268724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3302781</v>
+        <v>3303722</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9762791060922652</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9701226280011565</v>
+        <v>0.9707305750787855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9808447974964287</v>
+        <v>0.9811242283924532</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3102</v>
@@ -4354,19 +4354,19 @@
         <v>3274800</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3240679</v>
+        <v>3240583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3306399</v>
+        <v>3306253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9285492844321444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9188743131643797</v>
+        <v>0.9188471673040282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9375090153794621</v>
+        <v>0.9374675419688034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6227</v>
@@ -4375,19 +4375,19 @@
         <v>6562208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6526003</v>
+        <v>6519524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6597191</v>
+        <v>6599632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9518620262409444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9466104324171956</v>
+        <v>0.945670653262924</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9569363686724263</v>
+        <v>0.9572903934264348</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>43173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31236</v>
+        <v>31357</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58751</v>
+        <v>56920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08696024333659963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0629167742676067</v>
+        <v>0.06316016264984602</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1183362891793543</v>
+        <v>0.1146479388547747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -4740,19 +4740,19 @@
         <v>83035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69349</v>
+        <v>69958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98232</v>
+        <v>98404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1335016526879307</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1114975465300114</v>
+        <v>0.112477181841905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.15793527890957</v>
+        <v>0.1582117262739667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -4761,19 +4761,19 @@
         <v>126208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>108002</v>
+        <v>108288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146415</v>
+        <v>144989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1128421840370298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09656398970478351</v>
+        <v>0.09682031638624959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1309092122036043</v>
+        <v>0.1296340531567071</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>453300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>437722</v>
+        <v>439553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465237</v>
+        <v>465116</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9130397566634005</v>
+        <v>0.9130397566634004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8816637108206455</v>
+        <v>0.8853520611452254</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9370832257323932</v>
+        <v>0.9368398373501537</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>725</v>
@@ -4811,19 +4811,19 @@
         <v>538940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>523743</v>
+        <v>523571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>552626</v>
+        <v>552017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8664983473120692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8420647210904297</v>
+        <v>0.8417882737260334</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8885024534699887</v>
+        <v>0.8875228181580948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1132</v>
@@ -4832,19 +4832,19 @@
         <v>992240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>972033</v>
+        <v>973459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1010446</v>
+        <v>1010160</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8871578159629702</v>
+        <v>0.8871578159629704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8690907877963958</v>
+        <v>0.870365946843293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9034360102952167</v>
+        <v>0.9031796836137503</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>32676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23729</v>
+        <v>24205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43569</v>
+        <v>44832</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03407298354376931</v>
+        <v>0.03407298354376932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02474326301303736</v>
+        <v>0.0252401297814557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04543137698482385</v>
+        <v>0.04674828382076995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -4957,19 +4957,19 @@
         <v>93340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78364</v>
+        <v>78857</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109348</v>
+        <v>109117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0840049860766159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0705270776408749</v>
+        <v>0.07097089765779285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09841201309629531</v>
+        <v>0.09820458644961237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -4978,19 +4978,19 @@
         <v>126016</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108188</v>
+        <v>108153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142845</v>
+        <v>145684</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06087353591490401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05226137133488718</v>
+        <v>0.05224459697676381</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06900310258583772</v>
+        <v>0.070374308947235</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>926328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>915435</v>
+        <v>914172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>935275</v>
+        <v>934799</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9659270164562307</v>
+        <v>0.9659270164562308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.954568623015176</v>
+        <v>0.95325171617923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9752567369869626</v>
+        <v>0.9747598702185444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1429</v>
@@ -5028,19 +5028,19 @@
         <v>1017781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1001773</v>
+        <v>1002004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032757</v>
+        <v>1032264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9159950139233841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9015879869037046</v>
+        <v>0.9017954135503877</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9294729223591252</v>
+        <v>0.9290291023422071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2289</v>
@@ -5049,19 +5049,19 @@
         <v>1944108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927279</v>
+        <v>1924440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1961936</v>
+        <v>1961971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9391264640850959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9309968974141624</v>
+        <v>0.929625691052765</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9477386286651129</v>
+        <v>0.9477554030232368</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>38909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29586</v>
+        <v>28933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52162</v>
+        <v>51513</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03718066538728942</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02827168644744244</v>
+        <v>0.02764752236511363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04984517070655518</v>
+        <v>0.04922473640410956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -5174,19 +5174,19 @@
         <v>73606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61073</v>
+        <v>61337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87359</v>
+        <v>87026</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07030219738992312</v>
+        <v>0.07030219738992309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05833150026257634</v>
+        <v>0.05858448993255966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08343840749635265</v>
+        <v>0.0831198074512076</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -5195,19 +5195,19 @@
         <v>112515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95853</v>
+        <v>95483</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131264</v>
+        <v>131539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05374547591137807</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04578669148158138</v>
+        <v>0.04560999525986959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06270176040161961</v>
+        <v>0.06283283001842713</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1007570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>994317</v>
+        <v>994966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1016893</v>
+        <v>1017546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9628193346127106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.950154829293445</v>
+        <v>0.9507752635958903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9717283135525574</v>
+        <v>0.9723524776348862</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1389</v>
@@ -5245,19 +5245,19 @@
         <v>973385</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>959632</v>
+        <v>959965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>985918</v>
+        <v>985654</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.929697802610077</v>
+        <v>0.9296978026100768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9165615925036472</v>
+        <v>0.9168801925487924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9416684997374237</v>
+        <v>0.9414155100674404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2366</v>
@@ -5266,19 +5266,19 @@
         <v>1980955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1962206</v>
+        <v>1961931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1997617</v>
+        <v>1997987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.946254524088622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9372982395983808</v>
+        <v>0.9371671699815727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9542133085184188</v>
+        <v>0.9543900047401302</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>34806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25769</v>
+        <v>25579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47752</v>
+        <v>46187</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0357050234086858</v>
+        <v>0.03570502340868579</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02643468853390683</v>
+        <v>0.02623950829228076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04898458300791959</v>
+        <v>0.04737971096770343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -5391,19 +5391,19 @@
         <v>74269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61171</v>
+        <v>61995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89118</v>
+        <v>88966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08186402929981103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06742622507471265</v>
+        <v>0.06833511816254693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09823157690593012</v>
+        <v>0.09806424285811462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -5412,19 +5412,19 @@
         <v>109076</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93288</v>
+        <v>94084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126274</v>
+        <v>127338</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05795545001225252</v>
+        <v>0.05795545001225251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04956687123178749</v>
+        <v>0.04998991676305947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06709362451551612</v>
+        <v>0.06765876517165843</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>940027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927081</v>
+        <v>928646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>949064</v>
+        <v>949254</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9642949765913144</v>
+        <v>0.9642949765913141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510154169920804</v>
+        <v>0.9526202890322967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735653114660932</v>
+        <v>0.9737604917077193</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1198</v>
@@ -5462,19 +5462,19 @@
         <v>832956</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>818107</v>
+        <v>818259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846054</v>
+        <v>845230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9181359707001889</v>
+        <v>0.9181359707001888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.90176842309407</v>
+        <v>0.9019357571418853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9325737749252874</v>
+        <v>0.9316648818374531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2099</v>
@@ -5483,19 +5483,19 @@
         <v>1772982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1755784</v>
+        <v>1754720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1788770</v>
+        <v>1787974</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9420445499877474</v>
+        <v>0.9420445499877473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9329063754844842</v>
+        <v>0.9323412348283417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9504331287682127</v>
+        <v>0.9500100832369408</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>149565</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125651</v>
+        <v>129186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175796</v>
+        <v>174162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04301806677277923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03613985960018381</v>
+        <v>0.03715683747662222</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05056260290149434</v>
+        <v>0.05009281028623293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>551</v>
@@ -5608,19 +5608,19 @@
         <v>324249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296333</v>
+        <v>294640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>350567</v>
+        <v>350261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08793648868393637</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08036565533383053</v>
+        <v>0.07990656977823073</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09507399814086648</v>
+        <v>0.09499096078854027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>743</v>
@@ -5629,19 +5629,19 @@
         <v>473814</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>438685</v>
+        <v>438815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>511525</v>
+        <v>513864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06613725731518136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0612338142526654</v>
+        <v>0.061251926085692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07140114432001428</v>
+        <v>0.07172760808822756</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3327224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3300993</v>
+        <v>3302627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3351138</v>
+        <v>3347603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9569819332272209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9494373970985057</v>
+        <v>0.9499071897137676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9638601403998164</v>
+        <v>0.9628431625233781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4741</v>
@@ -5679,19 +5679,19 @@
         <v>3363062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3336744</v>
+        <v>3337050</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3390978</v>
+        <v>3392671</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9120635113160636</v>
+        <v>0.9120635113160637</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9049260018591335</v>
+        <v>0.9050090392114597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9196343446661696</v>
+        <v>0.9200934302217694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7886</v>
@@ -5700,19 +5700,19 @@
         <v>6690286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6652575</v>
+        <v>6650236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6725415</v>
+        <v>6725285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9338627426848186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9285988556799858</v>
+        <v>0.9282723919117725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9387661857473346</v>
+        <v>0.9387480739143081</v>
       </c>
     </row>
     <row r="18">
